--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9999EFEB-302F-41BE-84D4-6CC5F7F9BD7B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,18 +385,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -491,10 +491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="5595" yWindow="990" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:O20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -39,28 +40,93 @@
     <t>end time</t>
   </si>
   <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>00:06:03</t>
+  </si>
+  <si>
+    <t>delete reason</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>00:02:00</t>
+  </si>
+  <si>
+    <t>00:04:00</t>
+  </si>
+  <si>
+    <t>Bypass Public Holiday</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
-    <t>00:00:00</t>
-  </si>
-  <si>
-    <t>00:00:06</t>
-  </si>
-  <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>00:06:03</t>
-  </si>
-  <si>
-    <t>delete reason</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>00:02:06</t>
+  </si>
+  <si>
+    <t>Week day 2</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>10120</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:11:11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00:00 </t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>11123</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT  
+ [GROUP_NAME] as VDN
+  ,ISNULL(VDN_NAME, GROUP_NAME) AS VDNName  
+  ,WEEKDAY as 'Week Day'
+  ,[START_TIME] as 'Start Time'
+  ,[END_TIME] as 'End Time'
+  ,I.LAST_CHANGED_BY as 'Last Changed By',
+  Substring(I.LAST_CHANGED_ON,12,18) as 'Last Changed On'
+FROM [Product_OCM].[dbo].[IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No;</t>
   </si>
 </sst>
 </file>
@@ -103,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -113,6 +179,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,20 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -419,19 +495,82 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -442,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +595,7 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -469,19 +608,59 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +674,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,15 +688,15 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -526,4 +705,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="990" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,7 +126,7 @@
   ,[END_TIME] as 'End Time'
   ,I.LAST_CHANGED_BY as 'Last Changed By',
   Substring(I.LAST_CHANGED_ON,12,18) as 'Last Changed On'
-FROM [Product_OCM].[dbo].[IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No;</t>
+FROM [IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No;</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="A1:I11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -127,6 +126,18 @@
   ,I.LAST_CHANGED_BY as 'Last Changed By',
   Substring(I.LAST_CHANGED_ON,12,18) as 'Last Changed On'
 FROM [IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No;</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -459,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -519,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -539,7 +550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
@@ -556,7 +567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -571,6 +582,26 @@
       </c>
       <c r="E5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -612,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -629,7 +660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -646,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -711,7 +742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -480,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -614,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L18"/>
+  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>delete</t>
-  </si>
-  <si>
-    <t>10000</t>
   </si>
   <si>
     <t>Sun</t>
@@ -508,18 +505,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -528,81 +525,81 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -615,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +643,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -658,12 +655,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -675,24 +672,24 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -705,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,8 +721,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -754,12 +751,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
+  <oleSize ref="A1:P10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19050" windowHeight="3795"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="15460" windowHeight="1860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P10"/>
+  <oleSize ref="A1:O5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -62,9 +63,6 @@
   </si>
   <si>
     <t>12345</t>
-  </si>
-  <si>
-    <t>00:02:00</t>
   </si>
   <si>
     <t>00:04:00</t>
@@ -126,6 +124,12 @@
 FROM [IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No;</t>
   </si>
   <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>22120</t>
+  </si>
+  <si>
     <t>mon</t>
   </si>
   <si>
@@ -136,6 +140,9 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>99123</t>
   </si>
 </sst>
 </file>
@@ -468,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,19 +483,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -505,18 +512,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -525,81 +532,81 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>34</v>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -610,18 +617,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -680,16 +687,33 @@
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -702,14 +726,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,8 +745,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -744,19 +768,102 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="15460" windowHeight="1860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="10230"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O5"/>
+  <oleSize ref="A1:O32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -475,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,20 +485,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -518,7 +518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -535,7 +535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -572,7 +572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>27</v>
       </c>
@@ -589,7 +589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -623,15 +623,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -726,14 +726,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,12 +768,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.54296875" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -796,17 +796,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -826,7 +826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -843,7 +843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -851,17 +851,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>35</v>
       </c>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O32"/>
+  <oleSize ref="A1:O25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O25"/>
+  <oleSize ref="A1:R24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:R24"/>
+  <oleSize ref="A1:P10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -619,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E9221-D884-4EDC-8F78-DB4AEFAFB286}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3810" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,6 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Sun</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>00:04:00</t>
   </si>
   <si>
@@ -89,25 +86,13 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>11111</t>
-  </si>
-  <si>
     <t>10120</t>
   </si>
   <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t xml:space="preserve">11:11:11 </t>
   </si>
   <si>
-    <t xml:space="preserve">9:00:00 </t>
-  </si>
-  <si>
     <t>Disable</t>
-  </si>
-  <si>
-    <t>11123</t>
   </si>
   <si>
     <t>Query</t>
@@ -144,11 +129,32 @@
   <si>
     <t>99123</t>
   </si>
+  <si>
+    <t>99801</t>
+  </si>
+  <si>
+    <t>87222</t>
+  </si>
+  <si>
+    <t>812367</t>
+  </si>
+  <si>
+    <t>97434</t>
+  </si>
+  <si>
+    <t>988023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:00 </t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -203,6 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,23 +489,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -512,18 +519,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -532,81 +539,101 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -616,22 +643,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -648,9 +675,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -662,12 +689,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -682,12 +709,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -699,9 +726,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -713,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -723,20 +750,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -744,9 +771,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>22</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -761,26 +788,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -789,24 +816,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -820,18 +847,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -840,30 +867,30 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8E9221-D884-4EDC-8F78-DB4AEFAFB286}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -15,6 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -150,11 +150,14 @@
   <si>
     <t>98</t>
   </si>
+  <si>
+    <t>190493</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,27 +485,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -544,7 +547,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -643,19 +646,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -750,17 +753,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -788,19 +791,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.54296875" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -816,21 +819,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B24B61B4-E0EC-4DDF-8DA2-AB79CFC0558C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14445" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -151,13 +152,13 @@
     <t>98</t>
   </si>
   <si>
-    <t>190493</t>
+    <t>13728</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,18 +486,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -753,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -791,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -819,7 +820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B24B61B4-E0EC-4DDF-8DA2-AB79CFC0558C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14445" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:I11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,17 +485,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -754,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -792,11 +791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
+++ b/ocms/target/test-classes/TestData/OperatingHoursData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A7D6E3-AD81-4BB7-A2EC-46C0E2394535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
-    <sheet name="Invalid" sheetId="5" r:id="rId5"/>
+    <sheet name="Search" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I11"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,66 +98,66 @@
     <t>Query</t>
   </si>
   <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>22120</t>
+  </si>
+  <si>
+    <t>mon</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mo</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>99123</t>
+  </si>
+  <si>
+    <t>99801</t>
+  </si>
+  <si>
+    <t>87222</t>
+  </si>
+  <si>
+    <t>812367</t>
+  </si>
+  <si>
+    <t>97434</t>
+  </si>
+  <si>
+    <t>988023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:00 </t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>13728</t>
+  </si>
+  <si>
     <t>SELECT  
- [GROUP_NAME] as VDN
-  ,ISNULL(VDN_NAME, GROUP_NAME) AS VDNName  
+ [GROUP_NAME] as 'Skill/VDN'
+  ,ISNULL(VDN_NAME, GROUP_NAME) AS 'Skill/VDN Name'  
   ,WEEKDAY as 'Week Day'
   ,[START_TIME] as 'Start Time'
   ,[END_TIME] as 'End Time'
   ,I.LAST_CHANGED_BY as 'Last Changed By',
   Substring(I.LAST_CHANGED_ON,12,18) as 'Last Changed On'
-FROM [IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No;</t>
-  </si>
-  <si>
-    <t>Mon</t>
-  </si>
-  <si>
-    <t>22120</t>
-  </si>
-  <si>
-    <t>mon</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mo</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>99123</t>
-  </si>
-  <si>
-    <t>99801</t>
-  </si>
-  <si>
-    <t>87222</t>
-  </si>
-  <si>
-    <t>812367</t>
-  </si>
-  <si>
-    <t>97434</t>
-  </si>
-  <si>
-    <t>988023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09:00:00 </t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>13728</t>
+FROM [IVR_BUSINESS_HOUR] I LEFT JOIN VDN_DETAILS ON [GROUP_NAME] = VDN_No ORDER BY [START_TIME] ASC ;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,30 +485,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -528,9 +528,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -545,9 +545,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -565,9 +565,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -576,15 +576,15 @@
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -599,9 +599,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -619,9 +619,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -646,22 +646,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -678,9 +678,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -692,12 +692,12 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -712,9 +712,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -729,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -743,7 +743,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -753,20 +753,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -774,9 +774,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -791,26 +791,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -819,24 +819,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -856,9 +856,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -873,27 +873,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
